--- a/ERP/Diseño/Desarrollo/Desarrollo.xlsx
+++ b/ERP/Diseño/Desarrollo/Desarrollo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Compras</t>
   </si>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -346,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -861,7 +864,9 @@
       <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B30" s="13" t="s">
